--- a/Error Codes.xlsx
+++ b/Error Codes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No Such element found</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>element not loaded or clickable</t>
+  </si>
+  <si>
+    <t>Cannot locate option with index</t>
+  </si>
+  <si>
+    <t>element click intercepted</t>
+  </si>
+  <si>
+    <t>element not visible or hidden on page</t>
   </si>
 </sst>
 </file>
@@ -398,13 +407,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -446,15 +455,21 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
@@ -533,7 +548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
